--- a/db.xlsx
+++ b/db.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bizwork\spring\SpMVC_Beach\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17775" windowHeight="6675"/>
   </bookViews>
   <sheets>
     <sheet name="작업본" sheetId="1" r:id="rId1"/>
     <sheet name="temp" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A196:G216"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -14328,7 +14324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J215"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
